--- a/simulation_data/iterative_algorithm/i_error_level_7_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_7_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.23480090646731</v>
+        <v>88.93308398398483</v>
       </c>
       <c r="D2" t="n">
-        <v>7.959817648934366</v>
+        <v>8.699129236427812</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.11521444031587</v>
+        <v>89.11691966936446</v>
       </c>
       <c r="D3" t="n">
-        <v>9.2474158661121</v>
+        <v>9.37924998913927</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>85.73834657129291</v>
+        <v>88.55407263549986</v>
       </c>
       <c r="D4" t="n">
-        <v>8.876906535660209</v>
+        <v>9.543374887745733</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.80489997505472</v>
+        <v>88.10030520531345</v>
       </c>
       <c r="D5" t="n">
-        <v>10.44557408029889</v>
+        <v>8.18409692141662</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.92505192278466</v>
+        <v>85.92775936607663</v>
       </c>
       <c r="D6" t="n">
-        <v>8.662722107960553</v>
+        <v>7.954516855297395</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.92839729563374</v>
+        <v>85.46500410339017</v>
       </c>
       <c r="D7" t="n">
-        <v>9.621952637113147</v>
+        <v>8.396270645519985</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.90160697088821</v>
+        <v>83.97256315637065</v>
       </c>
       <c r="D8" t="n">
-        <v>8.766689347919119</v>
+        <v>9.449802060495577</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.90295765102071</v>
+        <v>82.38199909742647</v>
       </c>
       <c r="D9" t="n">
-        <v>8.637533900153866</v>
+        <v>7.999852108976975</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.73796259242732</v>
+        <v>82.30196802096484</v>
       </c>
       <c r="D10" t="n">
-        <v>11.07504682300278</v>
+        <v>8.737819817613497</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.82035940128604</v>
+        <v>79.42324014715835</v>
       </c>
       <c r="D11" t="n">
-        <v>8.393986556222774</v>
+        <v>8.383266438696321</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.73242534813515</v>
+        <v>80.66574711921098</v>
       </c>
       <c r="D12" t="n">
-        <v>9.867542513488882</v>
+        <v>9.452308208652646</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.85430999519983</v>
+        <v>79.2512056290845</v>
       </c>
       <c r="D13" t="n">
-        <v>8.852297572925981</v>
+        <v>7.925960293389315</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.61956169325707</v>
+        <v>78.0247226877776</v>
       </c>
       <c r="D14" t="n">
-        <v>9.746908996888921</v>
+        <v>8.588381189639744</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.42368778468554</v>
+        <v>77.65172502334269</v>
       </c>
       <c r="D15" t="n">
-        <v>8.850549179815232</v>
+        <v>9.386901338622806</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.20588461148868</v>
+        <v>77.61893187781075</v>
       </c>
       <c r="D16" t="n">
-        <v>9.100143065751521</v>
+        <v>8.717141353186221</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.5811024713046</v>
+        <v>74.75083879486562</v>
       </c>
       <c r="D17" t="n">
-        <v>9.463485592864942</v>
+        <v>8.310299045235222</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.85460448135653</v>
+        <v>72.87745083785404</v>
       </c>
       <c r="D18" t="n">
-        <v>9.186543340058018</v>
+        <v>8.999809354190807</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99434359326285</v>
+        <v>73.88131754695297</v>
       </c>
       <c r="D19" t="n">
-        <v>9.340196130837944</v>
+        <v>8.729322378872459</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.7086300535575</v>
+        <v>71.95516556310955</v>
       </c>
       <c r="D20" t="n">
-        <v>9.879597099856397</v>
+        <v>8.097272333464094</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.04359711478349</v>
+        <v>69.45562847667041</v>
       </c>
       <c r="D21" t="n">
-        <v>7.986812161596122</v>
+        <v>9.43524494774317</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.23761569973355</v>
+        <v>68.61278051715612</v>
       </c>
       <c r="D22" t="n">
-        <v>9.420943221143437</v>
+        <v>8.922069218433819</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.65884601874464</v>
+        <v>68.43356617081052</v>
       </c>
       <c r="D23" t="n">
-        <v>8.130936957326094</v>
+        <v>8.11383172222353</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.04445635847355</v>
+        <v>67.82368094636674</v>
       </c>
       <c r="D24" t="n">
-        <v>9.27407690923725</v>
+        <v>9.300785083359656</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.22371682597507</v>
+        <v>66.41327553447356</v>
       </c>
       <c r="D25" t="n">
-        <v>9.305294385157501</v>
+        <v>8.644415303286422</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.49162173863733</v>
+        <v>65.97109984483899</v>
       </c>
       <c r="D26" t="n">
-        <v>9.661362763091251</v>
+        <v>8.050877464079504</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.23740970377764</v>
+        <v>66.10755463543356</v>
       </c>
       <c r="D27" t="n">
-        <v>8.710641533422441</v>
+        <v>8.469655123963058</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.08150396167853</v>
+        <v>64.17912265394855</v>
       </c>
       <c r="D28" t="n">
-        <v>8.35896603936426</v>
+        <v>8.682947362169202</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.70910761359251</v>
+        <v>61.27150104080751</v>
       </c>
       <c r="D29" t="n">
-        <v>9.30728175501724</v>
+        <v>8.778985188933927</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.13189813282261</v>
+        <v>63.00797400028348</v>
       </c>
       <c r="D30" t="n">
-        <v>8.25639260287935</v>
+        <v>10.25728093429358</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.73141934789225</v>
+        <v>60.40842652852917</v>
       </c>
       <c r="D31" t="n">
-        <v>9.12354178784893</v>
+        <v>8.646589917892285</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.78081473978631</v>
+        <v>59.77421706610289</v>
       </c>
       <c r="D32" t="n">
-        <v>9.997739054422935</v>
+        <v>9.239590738861001</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.60853166881515</v>
+        <v>58.01126218171248</v>
       </c>
       <c r="D33" t="n">
-        <v>9.1156649980475</v>
+        <v>9.408166644323071</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.93157896417117</v>
+        <v>57.44327192846289</v>
       </c>
       <c r="D34" t="n">
-        <v>9.345160327366438</v>
+        <v>9.547248808037262</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.33197366237722</v>
+        <v>55.55498398366499</v>
       </c>
       <c r="D35" t="n">
-        <v>8.750925307660308</v>
+        <v>9.102470568745959</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.34550813637013</v>
+        <v>55.22751507300488</v>
       </c>
       <c r="D36" t="n">
-        <v>9.51539157304183</v>
+        <v>8.04087141700693</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.25448556221888</v>
+        <v>54.83064007625324</v>
       </c>
       <c r="D37" t="n">
-        <v>8.259577866585168</v>
+        <v>7.761503778634645</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.23340772994179</v>
+        <v>54.37941930986205</v>
       </c>
       <c r="D38" t="n">
-        <v>8.665439388436768</v>
+        <v>9.294883497549698</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.89247914615279</v>
+        <v>52.20822747408672</v>
       </c>
       <c r="D39" t="n">
-        <v>9.200184588092108</v>
+        <v>10.21227443404796</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.38344951198708</v>
+        <v>51.43727435361713</v>
       </c>
       <c r="D40" t="n">
-        <v>8.844924065259573</v>
+        <v>9.614944031604033</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.09908016897757</v>
+        <v>50.22705814872954</v>
       </c>
       <c r="D41" t="n">
-        <v>8.685034796203228</v>
+        <v>8.101977643300781</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.78563986523617</v>
+        <v>48.97667978925818</v>
       </c>
       <c r="D42" t="n">
-        <v>10.42779670592485</v>
+        <v>7.963854892607475</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.10587900791042</v>
+        <v>49.2849588576824</v>
       </c>
       <c r="D43" t="n">
-        <v>9.82457597243655</v>
+        <v>9.323759300278118</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.66327981703623</v>
+        <v>48.55353938244861</v>
       </c>
       <c r="D44" t="n">
-        <v>9.050799799915815</v>
+        <v>9.162510021453507</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.1391867842735</v>
+        <v>47.11747561761987</v>
       </c>
       <c r="D45" t="n">
-        <v>8.789648177028484</v>
+        <v>8.152039605803509</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.76618793337548</v>
+        <v>45.93937707467188</v>
       </c>
       <c r="D46" t="n">
-        <v>9.907477460047966</v>
+        <v>8.732593581811232</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.91202470104736</v>
+        <v>44.95973084521632</v>
       </c>
       <c r="D47" t="n">
-        <v>9.078346927942331</v>
+        <v>7.964670432004756</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.07618624344937</v>
+        <v>44.54594727476577</v>
       </c>
       <c r="D48" t="n">
-        <v>8.556367320235257</v>
+        <v>9.85567057071585</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.53652048680276</v>
+        <v>43.90294563320942</v>
       </c>
       <c r="D49" t="n">
-        <v>8.699521228854547</v>
+        <v>9.815301528869119</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.95759240067949</v>
+        <v>42.10985430911484</v>
       </c>
       <c r="D50" t="n">
-        <v>9.646920963670416</v>
+        <v>9.4515181280613</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.21472526659152</v>
+        <v>41.46682014695051</v>
       </c>
       <c r="D51" t="n">
-        <v>9.042772992767937</v>
+        <v>9.309826875923097</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.3618896784889</v>
+        <v>39.4135292345451</v>
       </c>
       <c r="D52" t="n">
-        <v>9.241313057789442</v>
+        <v>10.22720294062798</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.53025079526545</v>
+        <v>38.36602314321955</v>
       </c>
       <c r="D53" t="n">
-        <v>9.087270303326637</v>
+        <v>9.135868973439955</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.43395395947547</v>
+        <v>38.40736553489181</v>
       </c>
       <c r="D54" t="n">
-        <v>8.059247885018543</v>
+        <v>8.570621095531616</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.21073666206143</v>
+        <v>36.48807383751587</v>
       </c>
       <c r="D55" t="n">
-        <v>8.767072460842055</v>
+        <v>9.526120306628416</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.77678554883175</v>
+        <v>35.81330695557158</v>
       </c>
       <c r="D56" t="n">
-        <v>8.548932279804058</v>
+        <v>8.883389564749439</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.97506978530562</v>
+        <v>35.051112832413</v>
       </c>
       <c r="D57" t="n">
-        <v>8.832758108614627</v>
+        <v>9.806726749621303</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.17053870421456</v>
+        <v>34.35352664529974</v>
       </c>
       <c r="D58" t="n">
-        <v>9.475471526068254</v>
+        <v>9.042876028698709</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.72959698544854</v>
+        <v>32.5136087462789</v>
       </c>
       <c r="D59" t="n">
-        <v>9.094091269759755</v>
+        <v>9.707910249744659</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.62151663789166</v>
+        <v>33.38587326664062</v>
       </c>
       <c r="D60" t="n">
-        <v>9.448890593756605</v>
+        <v>9.628154300129957</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.73128257326625</v>
+        <v>31.41750479873631</v>
       </c>
       <c r="D61" t="n">
-        <v>8.981101534182807</v>
+        <v>8.692056662079827</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.08424603617323</v>
+        <v>27.82562080561882</v>
       </c>
       <c r="D62" t="n">
-        <v>10.44462443940267</v>
+        <v>8.824274159439648</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.20305834667245</v>
+        <v>28.81850271671453</v>
       </c>
       <c r="D63" t="n">
-        <v>8.310096519357593</v>
+        <v>8.423990404542611</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.66434705560013</v>
+        <v>28.77885313666609</v>
       </c>
       <c r="D64" t="n">
-        <v>9.325785567403273</v>
+        <v>8.531111393199884</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.17761645316679</v>
+        <v>26.53950744149622</v>
       </c>
       <c r="D65" t="n">
-        <v>10.51112256689739</v>
+        <v>9.177863328299331</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.40552767632262</v>
+        <v>26.89466452824906</v>
       </c>
       <c r="D66" t="n">
-        <v>9.337601683621484</v>
+        <v>9.008223750026055</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.73250656961947</v>
+        <v>26.27636075569029</v>
       </c>
       <c r="D67" t="n">
-        <v>9.41543742361228</v>
+        <v>9.289971006326498</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.31624046681962</v>
+        <v>24.43513569213252</v>
       </c>
       <c r="D68" t="n">
-        <v>8.548724760472497</v>
+        <v>9.749387891805137</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.00221147326348</v>
+        <v>22.64241814371352</v>
       </c>
       <c r="D69" t="n">
-        <v>9.317319429887709</v>
+        <v>8.390656998027808</v>
       </c>
     </row>
   </sheetData>
